--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mdk-Tspan1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mdk-Tspan1.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.098888</v>
+        <v>0.5979736666666666</v>
       </c>
       <c r="H2">
-        <v>6.296664</v>
+        <v>1.793921</v>
       </c>
       <c r="I2">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="J2">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.476486</v>
+        <v>0.4374626666666666</v>
       </c>
       <c r="N2">
-        <v>1.429458</v>
+        <v>1.312388</v>
       </c>
       <c r="O2">
-        <v>0.1483751124393585</v>
+        <v>0.13789916414942</v>
       </c>
       <c r="P2">
-        <v>0.1483751124393585</v>
+        <v>0.13789916414942</v>
       </c>
       <c r="Q2">
-        <v>1.000090747568</v>
+        <v>0.2615911548164444</v>
       </c>
       <c r="R2">
-        <v>9.000816728112</v>
+        <v>2.354320393347999</v>
       </c>
       <c r="S2">
-        <v>0.01606091833435275</v>
+        <v>0.004609493709085918</v>
       </c>
       <c r="T2">
-        <v>0.01606091833435274</v>
+        <v>0.004609493709085918</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.098888</v>
+        <v>0.5979736666666666</v>
       </c>
       <c r="H3">
-        <v>6.296664</v>
+        <v>1.793921</v>
       </c>
       <c r="I3">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="J3">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>5.560994</v>
       </c>
       <c r="O3">
-        <v>0.5772209536933567</v>
+        <v>0.584321423572861</v>
       </c>
       <c r="P3">
-        <v>0.5772209536933566</v>
+        <v>0.584321423572861</v>
       </c>
       <c r="Q3">
-        <v>3.890634524890667</v>
+        <v>1.108442657497111</v>
       </c>
       <c r="R3">
-        <v>35.015710724016</v>
+        <v>9.975983917474</v>
       </c>
       <c r="S3">
-        <v>0.06248149332951764</v>
+        <v>0.01953185099167665</v>
       </c>
       <c r="T3">
-        <v>0.06248149332951761</v>
+        <v>0.01953185099167665</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.098888</v>
+        <v>0.5979736666666666</v>
       </c>
       <c r="H4">
-        <v>6.296664</v>
+        <v>1.793921</v>
       </c>
       <c r="I4">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="J4">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>2.64363</v>
       </c>
       <c r="O4">
-        <v>0.274403933867285</v>
+        <v>0.2777794122777191</v>
       </c>
       <c r="P4">
-        <v>0.2744039338672849</v>
+        <v>0.2777794122777191</v>
       </c>
       <c r="Q4">
-        <v>1.84956109448</v>
+        <v>0.5269403748033332</v>
       </c>
       <c r="R4">
-        <v>16.64604985032</v>
+        <v>4.74246337323</v>
       </c>
       <c r="S4">
-        <v>0.02970295422198131</v>
+        <v>0.009285208226645476</v>
       </c>
       <c r="T4">
-        <v>0.02970295422198129</v>
+        <v>0.009285208226645478</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>47.625431</v>
       </c>
       <c r="I5">
-        <v>0.8187243600843848</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="J5">
-        <v>0.8187243600843847</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.476486</v>
+        <v>0.4374626666666666</v>
       </c>
       <c r="N5">
-        <v>1.429458</v>
+        <v>1.312388</v>
       </c>
       <c r="O5">
-        <v>0.1483751124393585</v>
+        <v>0.13789916414942</v>
       </c>
       <c r="P5">
-        <v>0.1483751124393585</v>
+        <v>0.13789916414942</v>
       </c>
       <c r="Q5">
-        <v>7.564283705155333</v>
+        <v>6.944782682136443</v>
       </c>
       <c r="R5">
-        <v>68.078553346398</v>
+        <v>62.503044139228</v>
       </c>
       <c r="S5">
-        <v>0.1214783189843624</v>
+        <v>0.122373908654286</v>
       </c>
       <c r="T5">
-        <v>0.1214783189843624</v>
+        <v>0.122373908654286</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>47.625431</v>
       </c>
       <c r="I6">
-        <v>0.8187243600843848</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="J6">
-        <v>0.8187243600843847</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>5.560994</v>
       </c>
       <c r="O6">
-        <v>0.5772209536933567</v>
+        <v>0.584321423572861</v>
       </c>
       <c r="P6">
-        <v>0.5772209536933566</v>
+        <v>0.584321423572861</v>
       </c>
       <c r="Q6">
         <v>29.42719289315711</v>
@@ -818,10 +818,10 @@
         <v>264.844736038414</v>
       </c>
       <c r="S6">
-        <v>0.4725848559398917</v>
+        <v>0.5185361126305885</v>
       </c>
       <c r="T6">
-        <v>0.4725848559398916</v>
+        <v>0.5185361126305885</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>47.625431</v>
       </c>
       <c r="I7">
-        <v>0.8187243600843848</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="J7">
-        <v>0.8187243600843847</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>2.64363</v>
       </c>
       <c r="O7">
-        <v>0.274403933867285</v>
+        <v>0.2777794122777191</v>
       </c>
       <c r="P7">
-        <v>0.2744039338672849</v>
+        <v>0.2777794122777191</v>
       </c>
       <c r="Q7">
         <v>13.98933535050333</v>
@@ -880,10 +880,10 @@
         <v>125.90401815453</v>
       </c>
       <c r="S7">
-        <v>0.2246611851601307</v>
+        <v>0.2465058626989352</v>
       </c>
       <c r="T7">
-        <v>0.2246611851601306</v>
+        <v>0.2465058626989352</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>4.248192</v>
       </c>
       <c r="I8">
-        <v>0.07303027402976368</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="J8">
-        <v>0.07303027402976367</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.476486</v>
+        <v>0.4374626666666666</v>
       </c>
       <c r="N8">
-        <v>1.429458</v>
+        <v>1.312388</v>
       </c>
       <c r="O8">
-        <v>0.1483751124393585</v>
+        <v>0.13789916414942</v>
       </c>
       <c r="P8">
-        <v>0.1483751124393585</v>
+        <v>0.13789916414942</v>
       </c>
       <c r="Q8">
-        <v>0.6747346711039999</v>
+        <v>0.6194751336106666</v>
       </c>
       <c r="R8">
-        <v>6.072612039935999</v>
+        <v>5.575276202496</v>
       </c>
       <c r="S8">
-        <v>0.01083587512064335</v>
+        <v>0.01091576178604806</v>
       </c>
       <c r="T8">
-        <v>0.01083587512064335</v>
+        <v>0.01091576178604806</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>4.248192</v>
       </c>
       <c r="I9">
-        <v>0.07303027402976368</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="J9">
-        <v>0.07303027402976367</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>5.560994</v>
       </c>
       <c r="O9">
-        <v>0.5772209536933567</v>
+        <v>0.584321423572861</v>
       </c>
       <c r="P9">
-        <v>0.5772209536933566</v>
+        <v>0.584321423572861</v>
       </c>
       <c r="Q9">
         <v>2.624907802538667</v>
@@ -1004,10 +1004,10 @@
         <v>23.624170222848</v>
       </c>
       <c r="S9">
-        <v>0.04215460442394738</v>
+        <v>0.04625345995059583</v>
       </c>
       <c r="T9">
-        <v>0.04215460442394735</v>
+        <v>0.04625345995059583</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>4.248192</v>
       </c>
       <c r="I10">
-        <v>0.07303027402976368</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="J10">
-        <v>0.07303027402976367</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>2.64363</v>
       </c>
       <c r="O10">
-        <v>0.274403933867285</v>
+        <v>0.2777794122777191</v>
       </c>
       <c r="P10">
-        <v>0.2744039338672849</v>
+        <v>0.2777794122777191</v>
       </c>
       <c r="Q10">
         <v>1.24784975744</v>
@@ -1066,10 +1066,10 @@
         <v>11.23064781696</v>
       </c>
       <c r="S10">
-        <v>0.02003979448517297</v>
+        <v>0.02198834135213842</v>
       </c>
       <c r="T10">
-        <v>0.02003979448517296</v>
+        <v>0.02198834135213842</v>
       </c>
     </row>
   </sheetData>
